--- a/annotations/file_size_comparison.xlsx
+++ b/annotations/file_size_comparison.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\XONI MASTER\1 interships\PEL4VAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\XONI MASTER\1 interships\PEL4VAD\annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F3C7BE-5CB3-43A4-846C-03626B65DB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AA61F0-B83D-4CBB-AEBC-D3B76ED7B800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28910" yWindow="-80" windowWidth="29020" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>Filename</t>
   </si>
@@ -31,6 +44,9 @@
     <t>Predicted size</t>
   </si>
   <si>
+    <t>Abuse028_x264_pred.npy</t>
+  </si>
+  <si>
     <t>Abuse030_x264_pred.npy</t>
   </si>
   <si>
@@ -896,6 +912,9 @@
   </si>
   <si>
     <t>Vandalism036_x264_pred.npy</t>
+  </si>
+  <si>
+    <t>difference</t>
   </si>
 </sst>
 </file>
@@ -1235,18 +1254,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C290"/>
+  <dimension ref="A1:D291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D281" sqref="D281"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" customWidth="1"/>
-    <col min="3" max="3" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.08984375" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" customWidth="1"/>
+    <col min="3" max="3" width="52.90625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1256,1537 +1278,2096 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1545</v>
+        <v>1413</v>
       </c>
       <c r="C2">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2375</v>
+        <v>1545</v>
       </c>
       <c r="C3">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1536</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">B3-C3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3145</v>
+        <v>2375</v>
       </c>
       <c r="C4">
-        <v>3136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2368</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3630</v>
+        <v>3145</v>
       </c>
       <c r="C5">
-        <v>3616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3136</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>8645</v>
+        <v>3630</v>
       </c>
       <c r="C6">
-        <v>8640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3616</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>15835</v>
+        <v>8645</v>
       </c>
       <c r="C7">
-        <v>15824</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8640</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>6253</v>
+        <v>15835</v>
       </c>
       <c r="C8">
-        <v>6240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15824</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>748</v>
+        <v>6253</v>
       </c>
       <c r="C9">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6240</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>3159</v>
+        <v>748</v>
       </c>
       <c r="C10">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1267</v>
+        <v>3159</v>
       </c>
       <c r="C11">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3152</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1796</v>
+        <v>1267</v>
       </c>
       <c r="C12">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1264</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>843</v>
+        <v>1796</v>
       </c>
       <c r="C13">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1792</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>8640</v>
+        <v>843</v>
       </c>
       <c r="C14">
-        <v>8640</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>832</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1438</v>
+        <v>8640</v>
       </c>
       <c r="C15">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8640</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>3756</v>
+        <v>1438</v>
       </c>
       <c r="C16">
-        <v>3744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1424</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>8096</v>
+        <v>3756</v>
       </c>
       <c r="C17">
-        <v>8080</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3744</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>16180</v>
+        <v>8096</v>
       </c>
       <c r="C18">
-        <v>16176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8080</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>2291</v>
+        <v>16180</v>
       </c>
       <c r="C19">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16176</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>7742</v>
+        <v>2291</v>
       </c>
       <c r="C20">
-        <v>7728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2288</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>2112</v>
+        <v>7742</v>
       </c>
       <c r="C21">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7728</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1126</v>
+        <v>2112</v>
       </c>
       <c r="C22">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2112</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1538</v>
+        <v>1126</v>
       </c>
       <c r="C23">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1120</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>3608</v>
+        <v>1538</v>
       </c>
       <c r="C24">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1536</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>15796</v>
+        <v>3608</v>
       </c>
       <c r="C25">
-        <v>15792</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3600</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1260</v>
+        <v>15796</v>
       </c>
       <c r="C26">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15792</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>4051</v>
+        <v>1260</v>
       </c>
       <c r="C27">
-        <v>4048</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1248</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1922</v>
+        <v>4051</v>
       </c>
       <c r="C28">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4048</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>8990</v>
+        <v>1922</v>
       </c>
       <c r="C29">
-        <v>8976</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1904</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>12923</v>
+        <v>8990</v>
       </c>
       <c r="C30">
-        <v>12912</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8976</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>14853</v>
+        <v>12923</v>
       </c>
       <c r="C31">
-        <v>14848</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12912</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>626</v>
+        <v>14853</v>
       </c>
       <c r="C32">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14848</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>4013</v>
+        <v>626</v>
       </c>
       <c r="C33">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1905</v>
+        <v>4013</v>
       </c>
       <c r="C34">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4000</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>16290</v>
+        <v>1905</v>
       </c>
       <c r="C35">
-        <v>16288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1888</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>1751</v>
+        <v>16290</v>
       </c>
       <c r="C36">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16288</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>2498</v>
+        <v>1751</v>
       </c>
       <c r="C37">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1744</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>1571</v>
+        <v>2498</v>
       </c>
       <c r="C38">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2496</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>3317</v>
+        <v>1571</v>
       </c>
       <c r="C39">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1568</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>964</v>
+        <v>3317</v>
       </c>
       <c r="C40">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3312</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>1644</v>
+        <v>964</v>
       </c>
       <c r="C41">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>960</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>1292</v>
+        <v>1644</v>
       </c>
       <c r="C42">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1632</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>787</v>
+        <v>1292</v>
       </c>
       <c r="C43">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1280</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>3594</v>
+        <v>787</v>
       </c>
       <c r="C44">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>768</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>505</v>
+        <v>3594</v>
       </c>
       <c r="C45">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3584</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
-        <v>776</v>
+        <v>505</v>
       </c>
       <c r="C46">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
-        <v>1707</v>
+        <v>776</v>
       </c>
       <c r="C47">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>768</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
-        <v>2409</v>
+        <v>1707</v>
       </c>
       <c r="C48">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1696</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
-        <v>3156</v>
+        <v>2409</v>
       </c>
       <c r="C49">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2400</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
-        <v>2865</v>
+        <v>3156</v>
       </c>
       <c r="C50">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3152</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
-        <v>5328</v>
+        <v>2865</v>
       </c>
       <c r="C51">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2864</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
-        <v>998</v>
+        <v>5328</v>
       </c>
       <c r="C52">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5312</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
-        <v>7650</v>
+        <v>998</v>
       </c>
       <c r="C53">
-        <v>7632</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>992</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>3103</v>
+        <v>7650</v>
       </c>
       <c r="C54">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7632</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55">
-        <v>1391</v>
+        <v>3103</v>
       </c>
       <c r="C55">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3088</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
-        <v>1106</v>
+        <v>1391</v>
       </c>
       <c r="C56">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1376</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57">
-        <v>2237</v>
+        <v>1106</v>
       </c>
       <c r="C57">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1104</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58">
-        <v>4460</v>
+        <v>2237</v>
       </c>
       <c r="C58">
-        <v>4448</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2224</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59">
-        <v>2823</v>
+        <v>4460</v>
       </c>
       <c r="C59">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4448</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60">
-        <v>450</v>
+        <v>2823</v>
       </c>
       <c r="C60">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2816</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61">
-        <v>1054</v>
+        <v>450</v>
       </c>
       <c r="C61">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62">
-        <v>1501</v>
+        <v>1054</v>
       </c>
       <c r="C62">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1040</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63">
-        <v>481</v>
+        <v>1501</v>
       </c>
       <c r="C63">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1488</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64">
-        <v>1182</v>
+        <v>481</v>
       </c>
       <c r="C64">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65">
-        <v>2845</v>
+        <v>1182</v>
       </c>
       <c r="C65">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1168</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66">
-        <v>1078</v>
+        <v>2845</v>
       </c>
       <c r="C66">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2832</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67">
-        <v>603</v>
+        <v>1078</v>
       </c>
       <c r="C67">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1072</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="1">B67-C67</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68">
-        <v>4923</v>
+        <v>603</v>
       </c>
       <c r="C68">
-        <v>4912</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69">
-        <v>1680</v>
+        <v>4923</v>
       </c>
       <c r="C69">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4912</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70">
-        <v>1319</v>
+        <v>1680</v>
       </c>
       <c r="C70">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1680</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71">
-        <v>1271</v>
+        <v>1319</v>
       </c>
       <c r="C71">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1312</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72">
-        <v>3156</v>
+        <v>1271</v>
       </c>
       <c r="C72">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1264</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73">
-        <v>1668</v>
+        <v>3156</v>
       </c>
       <c r="C73">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3152</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74">
-        <v>4198</v>
+        <v>1668</v>
       </c>
       <c r="C74">
-        <v>4192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1648</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75">
-        <v>2359</v>
+        <v>4198</v>
       </c>
       <c r="C75">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4192</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1572</v>
+        <v>2359</v>
       </c>
       <c r="C76">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2352</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77">
-        <v>1838</v>
+        <v>1572</v>
       </c>
       <c r="C77">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1568</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78">
-        <v>356</v>
+        <v>1838</v>
       </c>
       <c r="C78">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1824</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79">
-        <v>1068</v>
+        <v>356</v>
       </c>
       <c r="C79">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="C80">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1056</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81">
-        <v>628</v>
+        <v>994</v>
       </c>
       <c r="C81">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>992</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82">
-        <v>467</v>
+        <v>628</v>
       </c>
       <c r="C82">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83">
-        <v>865</v>
+        <v>467</v>
       </c>
       <c r="C83">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84">
-        <v>1740</v>
+        <v>865</v>
       </c>
       <c r="C84">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>864</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85">
-        <v>8848</v>
+        <v>1740</v>
       </c>
       <c r="C85">
-        <v>8832</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1728</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86">
-        <v>4095</v>
+        <v>8848</v>
       </c>
       <c r="C86">
-        <v>4080</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8832</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87">
-        <v>737</v>
+        <v>4095</v>
       </c>
       <c r="C87">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4080</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88">
-        <v>2004</v>
+        <v>737</v>
       </c>
       <c r="C88">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89">
-        <v>2572</v>
+        <v>2004</v>
       </c>
       <c r="C89">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90">
-        <v>5409</v>
+        <v>2572</v>
       </c>
       <c r="C90">
-        <v>5408</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2560</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91">
-        <v>1818</v>
+        <v>5409</v>
       </c>
       <c r="C91">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5408</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92">
-        <v>6959</v>
+        <v>1818</v>
       </c>
       <c r="C92">
-        <v>6944</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1808</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93">
-        <v>4993</v>
+        <v>6959</v>
       </c>
       <c r="C93">
-        <v>4992</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6944</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94">
-        <v>8212</v>
+        <v>4993</v>
       </c>
       <c r="C94">
-        <v>8208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4992</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95">
-        <v>1141</v>
+        <v>8212</v>
       </c>
       <c r="C95">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8208</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96">
-        <v>405</v>
+        <v>1141</v>
       </c>
       <c r="C96">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1136</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97">
-        <v>864</v>
+        <v>405</v>
       </c>
       <c r="C97">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98">
-        <v>2519</v>
+        <v>864</v>
       </c>
       <c r="C98">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>848</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99">
-        <v>1260</v>
+        <v>2519</v>
       </c>
       <c r="C99">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2512</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100">
-        <v>929</v>
+        <v>1260</v>
       </c>
       <c r="C100">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1248</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101">
-        <v>211</v>
+        <v>929</v>
       </c>
       <c r="C101">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>928</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102">
-        <v>5404</v>
+        <v>211</v>
       </c>
       <c r="C102">
-        <v>5392</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103">
-        <v>984</v>
+        <v>5404</v>
       </c>
       <c r="C103">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5392</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104">
-        <v>6628</v>
+        <v>984</v>
       </c>
       <c r="C104">
-        <v>6624</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+        <v>976</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105">
-        <v>1627</v>
+        <v>6628</v>
       </c>
       <c r="C105">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6624</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106">
-        <v>1050</v>
+        <v>1627</v>
       </c>
       <c r="C106">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1616</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107">
-        <v>4227</v>
+        <v>1050</v>
       </c>
       <c r="C107">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1072</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108">
-        <v>445</v>
+        <v>4227</v>
       </c>
       <c r="C108">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4224</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109">
-        <v>5322</v>
+        <v>445</v>
       </c>
       <c r="C109">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>111</v>
       </c>
       <c r="B110">
-        <v>4502</v>
+        <v>5322</v>
       </c>
       <c r="C110">
-        <v>4496</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5312</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111">
-        <v>11276</v>
+        <v>4502</v>
       </c>
       <c r="C111">
-        <v>11264</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4496</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112">
-        <v>2230</v>
+        <v>11276</v>
       </c>
       <c r="C112">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11264</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>114</v>
       </c>
       <c r="B113">
-        <v>3278</v>
+        <v>2230</v>
       </c>
       <c r="C113">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2224</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>115</v>
       </c>
       <c r="B114">
-        <v>1234</v>
+        <v>3278</v>
       </c>
       <c r="C114">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3264</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>116</v>
       </c>
       <c r="B115">
-        <v>4802</v>
+        <v>1234</v>
       </c>
       <c r="C115">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1232</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>117</v>
       </c>
       <c r="B116">
-        <v>13460</v>
+        <v>4802</v>
       </c>
       <c r="C116">
-        <v>13456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4800</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>118</v>
       </c>
       <c r="B117">
-        <v>3606</v>
+        <v>13460</v>
       </c>
       <c r="C117">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13456</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>119</v>
       </c>
       <c r="B118">
-        <v>1816</v>
+        <v>3606</v>
       </c>
       <c r="C118">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3600</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119">
-        <v>2411</v>
+        <v>1816</v>
       </c>
       <c r="C119">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1808</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>121</v>
       </c>
       <c r="B120">
-        <v>3625</v>
+        <v>2411</v>
       </c>
       <c r="C120">
-        <v>3616</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2400</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>122</v>
       </c>
       <c r="B121">
-        <v>2523</v>
+        <v>3625</v>
       </c>
       <c r="C121">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3616</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>123</v>
       </c>
       <c r="B122">
-        <v>1694</v>
+        <v>2523</v>
       </c>
       <c r="C122">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2512</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>124</v>
       </c>
       <c r="B123">
-        <v>1799</v>
+        <v>1694</v>
       </c>
       <c r="C123">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1680</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>125</v>
       </c>
       <c r="B124">
-        <v>1257</v>
+        <v>1799</v>
       </c>
       <c r="C124">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1792</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>126</v>
       </c>
       <c r="B125">
-        <v>8731</v>
+        <v>1257</v>
       </c>
       <c r="C125">
-        <v>8720</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1248</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>127</v>
       </c>
       <c r="B126">
-        <v>922</v>
+        <v>8731</v>
       </c>
       <c r="C126">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8720</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>128</v>
       </c>
       <c r="B127">
-        <v>305</v>
+        <v>922</v>
       </c>
       <c r="C127">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+        <v>912</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>129</v>
       </c>
       <c r="B128">
-        <v>1590</v>
+        <v>305</v>
       </c>
       <c r="C128">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129">
-        <v>1263</v>
+        <v>1590</v>
       </c>
       <c r="C129">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1584</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>131</v>
       </c>
       <c r="B130">
-        <v>2022</v>
+        <v>1263</v>
       </c>
       <c r="C130">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1248</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>132</v>
       </c>
       <c r="B131">
-        <v>3976</v>
+        <v>2022</v>
       </c>
       <c r="C131">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="2">B131-C131</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>133</v>
       </c>
       <c r="B132">
-        <v>5544</v>
+        <v>3976</v>
       </c>
       <c r="C132">
-        <v>5536</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3968</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133">
-        <v>9591</v>
+        <v>5544</v>
       </c>
       <c r="C133">
-        <v>9584</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5536</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>135</v>
       </c>
       <c r="B134">
-        <v>6000</v>
+        <v>9591</v>
       </c>
       <c r="C134">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9584</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>136</v>
       </c>
       <c r="B135">
-        <v>2744</v>
+        <v>6000</v>
       </c>
       <c r="C135">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6000</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>137</v>
       </c>
       <c r="B136">
-        <v>931</v>
+        <v>2744</v>
       </c>
       <c r="C136">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2736</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>138</v>
       </c>
       <c r="B137">
-        <v>449</v>
+        <v>931</v>
       </c>
       <c r="C137">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+        <v>928</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138">
-        <v>1199</v>
+        <v>449</v>
       </c>
       <c r="C138">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>140</v>
       </c>
       <c r="B139">
-        <v>624</v>
+        <v>1199</v>
       </c>
       <c r="C139">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1184</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>141</v>
       </c>
       <c r="B140">
-        <v>2402</v>
+        <v>624</v>
       </c>
       <c r="C140">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -2796,1644 +3377,2259 @@
       <c r="C141">
         <v>2400</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>143</v>
       </c>
       <c r="B142">
-        <v>602</v>
+        <v>2402</v>
       </c>
       <c r="C142">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2400</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>144</v>
       </c>
       <c r="B143">
-        <v>4359</v>
+        <v>602</v>
       </c>
       <c r="C143">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>145</v>
       </c>
       <c r="B144">
-        <v>530</v>
+        <v>4359</v>
       </c>
       <c r="C144">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4352</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>146</v>
       </c>
       <c r="B145">
-        <v>1800</v>
+        <v>530</v>
       </c>
       <c r="C145">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>147</v>
       </c>
       <c r="B146">
-        <v>4227</v>
+        <v>1800</v>
       </c>
       <c r="C146">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1792</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>148</v>
       </c>
       <c r="B147">
-        <v>2565</v>
+        <v>4227</v>
       </c>
       <c r="C147">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4224</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>149</v>
       </c>
       <c r="B148">
-        <v>330</v>
+        <v>2565</v>
       </c>
       <c r="C148">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2560</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>150</v>
       </c>
       <c r="B149">
-        <v>10025</v>
+        <v>330</v>
       </c>
       <c r="C149">
-        <v>10016</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>151</v>
       </c>
       <c r="B150">
-        <v>281</v>
+        <v>10025</v>
       </c>
       <c r="C150">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10016</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>152</v>
       </c>
       <c r="B151">
-        <v>1144</v>
+        <v>281</v>
       </c>
       <c r="C151">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>153</v>
       </c>
       <c r="B152">
-        <v>18055</v>
+        <v>1144</v>
       </c>
       <c r="C152">
-        <v>18048</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1136</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>154</v>
       </c>
       <c r="B153">
-        <v>228</v>
+        <v>18055</v>
       </c>
       <c r="C153">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18048</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>155</v>
       </c>
       <c r="B154">
-        <v>1657</v>
+        <v>228</v>
       </c>
       <c r="C154">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>156</v>
       </c>
       <c r="B155">
-        <v>329</v>
+        <v>1657</v>
       </c>
       <c r="C155">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1648</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>157</v>
       </c>
       <c r="B156">
-        <v>9033</v>
+        <v>329</v>
       </c>
       <c r="C156">
-        <v>9024</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>158</v>
       </c>
       <c r="B157">
-        <v>476</v>
+        <v>9033</v>
       </c>
       <c r="C157">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9024</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>159</v>
       </c>
       <c r="B158">
-        <v>2748</v>
+        <v>476</v>
       </c>
       <c r="C158">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>160</v>
       </c>
       <c r="B159">
-        <v>7631</v>
+        <v>2748</v>
       </c>
       <c r="C159">
-        <v>7616</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2736</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>161</v>
       </c>
       <c r="B160">
-        <v>579</v>
+        <v>7631</v>
       </c>
       <c r="C160">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7616</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>162</v>
       </c>
       <c r="B161">
-        <v>318</v>
+        <v>579</v>
       </c>
       <c r="C161">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>163</v>
       </c>
       <c r="B162">
-        <v>3579</v>
+        <v>318</v>
       </c>
       <c r="C162">
-        <v>3568</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>164</v>
       </c>
       <c r="B163">
-        <v>1800</v>
+        <v>3579</v>
       </c>
       <c r="C163">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3568</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>165</v>
       </c>
       <c r="B164">
-        <v>1770</v>
+        <v>1800</v>
       </c>
       <c r="C164">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1792</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>166</v>
       </c>
       <c r="B165">
-        <v>6375</v>
+        <v>1770</v>
       </c>
       <c r="C165">
-        <v>6368</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1760</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>167</v>
       </c>
       <c r="B166">
-        <v>2576</v>
+        <v>6375</v>
       </c>
       <c r="C166">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6368</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>168</v>
       </c>
       <c r="B167">
-        <v>3030</v>
+        <v>2576</v>
       </c>
       <c r="C167">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2560</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>169</v>
       </c>
       <c r="B168">
-        <v>2304</v>
+        <v>3030</v>
       </c>
       <c r="C168">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3024</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>170</v>
       </c>
       <c r="B169">
-        <v>875</v>
+        <v>2304</v>
       </c>
       <c r="C169">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2288</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>171</v>
       </c>
       <c r="B170">
-        <v>1006</v>
+        <v>875</v>
       </c>
       <c r="C170">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+        <v>864</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>172</v>
       </c>
       <c r="B171">
-        <v>1381</v>
+        <v>1006</v>
       </c>
       <c r="C171">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+        <v>992</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>173</v>
       </c>
       <c r="B172">
-        <v>1457</v>
+        <v>1381</v>
       </c>
       <c r="C172">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1376</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>174</v>
       </c>
       <c r="B173">
-        <v>1170</v>
+        <v>1457</v>
       </c>
       <c r="C173">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1440</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>175</v>
       </c>
       <c r="B174">
-        <v>1383</v>
+        <v>1170</v>
       </c>
       <c r="C174">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1168</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>176</v>
       </c>
       <c r="B175">
-        <v>789</v>
+        <v>1383</v>
       </c>
       <c r="C175">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1376</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>177</v>
       </c>
       <c r="B176">
-        <v>908</v>
+        <v>789</v>
       </c>
       <c r="C176">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+        <v>784</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>178</v>
       </c>
       <c r="B177">
-        <v>1196</v>
+        <v>908</v>
       </c>
       <c r="C177">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+        <v>896</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>179</v>
       </c>
       <c r="B178">
-        <v>675</v>
+        <v>1196</v>
       </c>
       <c r="C178">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1184</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>180</v>
       </c>
       <c r="B179">
-        <v>597</v>
+        <v>675</v>
       </c>
       <c r="C179">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>181</v>
       </c>
       <c r="B180">
-        <v>888</v>
+        <v>597</v>
       </c>
       <c r="C180">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>182</v>
       </c>
       <c r="B181">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="C181">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+        <v>880</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>183</v>
       </c>
       <c r="B182">
-        <v>567</v>
+        <v>870</v>
       </c>
       <c r="C182">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+        <v>864</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>184</v>
       </c>
       <c r="B183">
-        <v>776</v>
+        <v>567</v>
       </c>
       <c r="C183">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>185</v>
       </c>
       <c r="B184">
-        <v>746</v>
+        <v>776</v>
       </c>
       <c r="C184">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+        <v>768</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>186</v>
       </c>
       <c r="B185">
-        <v>609</v>
+        <v>746</v>
       </c>
       <c r="C185">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>187</v>
       </c>
       <c r="B186">
-        <v>879</v>
+        <v>609</v>
       </c>
       <c r="C186">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>188</v>
       </c>
       <c r="B187">
-        <v>1245</v>
+        <v>879</v>
       </c>
       <c r="C187">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+        <v>864</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>189</v>
       </c>
       <c r="B188">
-        <v>18226</v>
+        <v>1245</v>
       </c>
       <c r="C188">
-        <v>18224</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1232</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>190</v>
       </c>
       <c r="B189">
-        <v>108000</v>
+        <v>18226</v>
       </c>
       <c r="C189">
-        <v>107984</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18224</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>191</v>
       </c>
       <c r="B190">
-        <v>7727</v>
+        <v>108000</v>
       </c>
       <c r="C190">
-        <v>7712</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+        <v>107984</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>192</v>
       </c>
       <c r="B191">
-        <v>1797</v>
+        <v>7727</v>
       </c>
       <c r="C191">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7712</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>193</v>
       </c>
       <c r="B192">
-        <v>1620</v>
+        <v>1797</v>
       </c>
       <c r="C192">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1792</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>194</v>
       </c>
       <c r="B193">
-        <v>919</v>
+        <v>1620</v>
       </c>
       <c r="C193">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1632</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>195</v>
       </c>
       <c r="B194">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="C194">
         <v>912</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D194">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>196</v>
       </c>
       <c r="B195">
-        <v>3189</v>
+        <v>927</v>
       </c>
       <c r="C195">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+        <v>912</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D258" si="3">B195-C195</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>197</v>
       </c>
       <c r="B196">
-        <v>1766</v>
+        <v>3189</v>
       </c>
       <c r="C196">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3184</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>198</v>
       </c>
       <c r="B197">
-        <v>1785</v>
+        <v>1766</v>
       </c>
       <c r="C197">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1760</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>199</v>
       </c>
       <c r="B198">
-        <v>1772</v>
+        <v>1785</v>
       </c>
       <c r="C198">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1776</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>200</v>
       </c>
       <c r="B199">
-        <v>1766</v>
+        <v>1772</v>
       </c>
       <c r="C199">
         <v>1760</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>201</v>
       </c>
       <c r="B200">
-        <v>107995</v>
+        <v>1766</v>
       </c>
       <c r="C200">
-        <v>107984</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1760</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>202</v>
       </c>
       <c r="B201">
-        <v>1150</v>
+        <v>107995</v>
       </c>
       <c r="C201">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+        <v>107984</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>203</v>
       </c>
       <c r="B202">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="C202">
         <v>1136</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>204</v>
       </c>
       <c r="B203">
-        <v>4828</v>
+        <v>1140</v>
       </c>
       <c r="C203">
-        <v>4816</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1136</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>205</v>
       </c>
       <c r="B204">
-        <v>804</v>
+        <v>4828</v>
       </c>
       <c r="C204">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4816</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>206</v>
       </c>
       <c r="B205">
-        <v>36018</v>
+        <v>804</v>
       </c>
       <c r="C205">
-        <v>36016</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>207</v>
       </c>
       <c r="B206">
-        <v>2020</v>
+        <v>36018</v>
       </c>
       <c r="C206">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36016</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>208</v>
       </c>
       <c r="B207">
-        <v>1023</v>
+        <v>2020</v>
       </c>
       <c r="C207">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>209</v>
       </c>
       <c r="B208">
-        <v>7170</v>
+        <v>1023</v>
       </c>
       <c r="C208">
-        <v>7168</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1008</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>210</v>
       </c>
       <c r="B209">
-        <v>1368</v>
+        <v>7170</v>
       </c>
       <c r="C209">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7168</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>211</v>
       </c>
       <c r="B210">
-        <v>348</v>
+        <v>1368</v>
       </c>
       <c r="C210">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>212</v>
       </c>
       <c r="B211">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="C211">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>213</v>
       </c>
       <c r="B212">
-        <v>918</v>
+        <v>389</v>
       </c>
       <c r="C212">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>214</v>
       </c>
       <c r="B213">
-        <v>528</v>
+        <v>918</v>
       </c>
       <c r="C213">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+        <v>912</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>215</v>
       </c>
       <c r="B214">
-        <v>2159</v>
+        <v>528</v>
       </c>
       <c r="C214">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>216</v>
       </c>
       <c r="B215">
-        <v>468</v>
+        <v>2159</v>
       </c>
       <c r="C215">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2144</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>217</v>
       </c>
       <c r="B216">
-        <v>2192</v>
+        <v>468</v>
       </c>
       <c r="C216">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>218</v>
       </c>
       <c r="B217">
-        <v>243</v>
+        <v>2192</v>
       </c>
       <c r="C217">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2176</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>219</v>
       </c>
       <c r="B218">
-        <v>1314</v>
+        <v>243</v>
       </c>
       <c r="C218">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>220</v>
       </c>
       <c r="B219">
-        <v>1773</v>
+        <v>1314</v>
       </c>
       <c r="C219">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1312</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>221</v>
       </c>
       <c r="B220">
-        <v>155</v>
+        <v>1773</v>
       </c>
       <c r="C220">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1760</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>222</v>
       </c>
       <c r="B221">
-        <v>716</v>
+        <v>155</v>
       </c>
       <c r="C221">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>223</v>
       </c>
       <c r="B222">
-        <v>1837</v>
+        <v>716</v>
       </c>
       <c r="C222">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>224</v>
       </c>
       <c r="B223">
-        <v>648</v>
+        <v>1837</v>
       </c>
       <c r="C223">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1824</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>225</v>
       </c>
       <c r="B224">
-        <v>1005</v>
+        <v>648</v>
       </c>
       <c r="C224">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>226</v>
       </c>
       <c r="B225">
-        <v>1496</v>
+        <v>1005</v>
       </c>
       <c r="C225">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+        <v>992</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>227</v>
       </c>
       <c r="B226">
-        <v>1780</v>
+        <v>1496</v>
       </c>
       <c r="C226">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1488</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>228</v>
       </c>
       <c r="B227">
-        <v>2580</v>
+        <v>1780</v>
       </c>
       <c r="C227">
-        <v>2576</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1760</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>229</v>
       </c>
       <c r="B228">
-        <v>577</v>
+        <v>2580</v>
       </c>
       <c r="C228">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2576</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>230</v>
       </c>
       <c r="B229">
-        <v>1524</v>
+        <v>577</v>
       </c>
       <c r="C229">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>231</v>
       </c>
       <c r="B230">
-        <v>1870</v>
+        <v>1524</v>
       </c>
       <c r="C230">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1520</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>232</v>
       </c>
       <c r="B231">
-        <v>673</v>
+        <v>1870</v>
       </c>
       <c r="C231">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1856</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>233</v>
       </c>
       <c r="B232">
-        <v>1410</v>
+        <v>673</v>
       </c>
       <c r="C232">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>234</v>
       </c>
       <c r="B233">
-        <v>1702</v>
+        <v>1410</v>
       </c>
       <c r="C233">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>235</v>
       </c>
       <c r="B234">
-        <v>1829</v>
+        <v>1702</v>
       </c>
       <c r="C234">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1696</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>236</v>
       </c>
       <c r="B235">
-        <v>1197</v>
+        <v>1829</v>
       </c>
       <c r="C235">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1824</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>237</v>
       </c>
       <c r="B236">
-        <v>2195</v>
+        <v>1197</v>
       </c>
       <c r="C236">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1184</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>238</v>
       </c>
       <c r="B237">
-        <v>1209</v>
+        <v>2195</v>
       </c>
       <c r="C237">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2192</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>239</v>
       </c>
       <c r="B238">
-        <v>1793</v>
+        <v>1209</v>
       </c>
       <c r="C238">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1200</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>240</v>
       </c>
       <c r="B239">
-        <v>1431</v>
+        <v>1793</v>
       </c>
       <c r="C239">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1792</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>241</v>
       </c>
       <c r="B240">
-        <v>1625</v>
+        <v>1431</v>
       </c>
       <c r="C240">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1424</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>242</v>
       </c>
       <c r="B241">
-        <v>2648</v>
+        <v>1625</v>
       </c>
       <c r="C241">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1616</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>243</v>
       </c>
       <c r="B242">
-        <v>4004</v>
+        <v>2648</v>
       </c>
       <c r="C242">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2640</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>244</v>
       </c>
       <c r="B243">
-        <v>1076</v>
+        <v>4004</v>
       </c>
       <c r="C243">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4000</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>245</v>
       </c>
       <c r="B244">
-        <v>1715</v>
+        <v>1076</v>
       </c>
       <c r="C244">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1072</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>246</v>
       </c>
       <c r="B245">
-        <v>1801</v>
+        <v>1715</v>
       </c>
       <c r="C245">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1712</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>247</v>
       </c>
       <c r="B246">
-        <v>2770</v>
+        <v>1801</v>
       </c>
       <c r="C246">
-        <v>2752</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1792</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>248</v>
       </c>
       <c r="B247">
-        <v>1280</v>
+        <v>2770</v>
       </c>
       <c r="C247">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2752</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>249</v>
       </c>
       <c r="B248">
-        <v>4558</v>
+        <v>1280</v>
       </c>
       <c r="C248">
-        <v>4544</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1264</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>250</v>
       </c>
       <c r="B249">
-        <v>2004</v>
+        <v>4558</v>
       </c>
       <c r="C249">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4544</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>251</v>
       </c>
       <c r="B250">
-        <v>1404</v>
+        <v>2004</v>
       </c>
       <c r="C250">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>252</v>
       </c>
       <c r="B251">
-        <v>1899</v>
+        <v>1404</v>
       </c>
       <c r="C251">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1392</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>253</v>
       </c>
       <c r="B252">
-        <v>21683</v>
+        <v>1899</v>
       </c>
       <c r="C252">
-        <v>21680</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1888</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>254</v>
       </c>
       <c r="B253">
-        <v>3631</v>
+        <v>21683</v>
       </c>
       <c r="C253">
-        <v>3616</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21680</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>255</v>
       </c>
       <c r="B254">
-        <v>1411</v>
+        <v>3631</v>
       </c>
       <c r="C254">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3616</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>256</v>
       </c>
       <c r="B255">
-        <v>307</v>
+        <v>1411</v>
       </c>
       <c r="C255">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>257</v>
       </c>
       <c r="B256">
-        <v>1876</v>
+        <v>307</v>
       </c>
       <c r="C256">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>258</v>
       </c>
       <c r="B257">
-        <v>5088</v>
+        <v>1876</v>
       </c>
       <c r="C257">
-        <v>5072</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1872</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>259</v>
       </c>
       <c r="B258">
-        <v>8286</v>
+        <v>5088</v>
       </c>
       <c r="C258">
-        <v>8272</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5072</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>260</v>
       </c>
       <c r="B259">
-        <v>2741</v>
+        <v>8286</v>
       </c>
       <c r="C259">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8272</v>
+      </c>
+      <c r="D259">
+        <f t="shared" ref="D259:D291" si="4">B259-C259</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>261</v>
       </c>
       <c r="B260">
-        <v>4346</v>
+        <v>2741</v>
       </c>
       <c r="C260">
-        <v>4336</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2736</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>262</v>
       </c>
       <c r="B261">
-        <v>6674</v>
+        <v>4346</v>
       </c>
       <c r="C261">
-        <v>6672</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4336</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>263</v>
       </c>
       <c r="B262">
-        <v>1967</v>
+        <v>6674</v>
       </c>
       <c r="C262">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6672</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>264</v>
       </c>
       <c r="B263">
-        <v>5124</v>
+        <v>1967</v>
       </c>
       <c r="C263">
-        <v>5120</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1952</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>265</v>
       </c>
       <c r="B264">
-        <v>2736</v>
+        <v>5124</v>
       </c>
       <c r="C264">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5120</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>266</v>
       </c>
       <c r="B265">
-        <v>2256</v>
+        <v>2736</v>
       </c>
       <c r="C265">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2720</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>267</v>
       </c>
       <c r="B266">
-        <v>1484</v>
+        <v>2256</v>
       </c>
       <c r="C266">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2240</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>268</v>
       </c>
       <c r="B267">
-        <v>460</v>
+        <v>1484</v>
       </c>
       <c r="C267">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1472</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>269</v>
       </c>
       <c r="B268">
-        <v>5771</v>
+        <v>460</v>
       </c>
       <c r="C268">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>270</v>
       </c>
       <c r="B269">
-        <v>3552</v>
+        <v>5771</v>
       </c>
       <c r="C269">
-        <v>3536</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5760</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>271</v>
       </c>
       <c r="B270">
-        <v>2192</v>
+        <v>3552</v>
       </c>
       <c r="C270">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3536</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>272</v>
       </c>
       <c r="B271">
-        <v>1874</v>
+        <v>2192</v>
       </c>
       <c r="C271">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2176</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>273</v>
       </c>
       <c r="B272">
-        <v>1358</v>
+        <v>1874</v>
       </c>
       <c r="C272">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1872</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>274</v>
       </c>
       <c r="B273">
-        <v>2176</v>
+        <v>1358</v>
       </c>
       <c r="C273">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1344</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>275</v>
       </c>
       <c r="B274">
-        <v>448</v>
+        <v>2176</v>
       </c>
       <c r="C274">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2176</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>276</v>
       </c>
       <c r="B275">
-        <v>900</v>
+        <v>448</v>
       </c>
       <c r="C275">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>277</v>
       </c>
       <c r="B276">
-        <v>11937</v>
+        <v>900</v>
       </c>
       <c r="C276">
-        <v>11936</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+        <v>896</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>278</v>
       </c>
       <c r="B277">
-        <v>1386</v>
+        <v>11937</v>
       </c>
       <c r="C277">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11936</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>279</v>
       </c>
       <c r="B278">
-        <v>2803</v>
+        <v>1386</v>
       </c>
       <c r="C278">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1376</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>280</v>
       </c>
       <c r="B279">
-        <v>14555</v>
+        <v>2803</v>
       </c>
       <c r="C279">
-        <v>14544</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2800</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>281</v>
       </c>
       <c r="B280">
-        <v>2150</v>
+        <v>14555</v>
       </c>
       <c r="C280">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14544</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>282</v>
       </c>
       <c r="B281">
-        <v>4912</v>
+        <v>2150</v>
       </c>
       <c r="C281">
-        <v>4896</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2144</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>283</v>
       </c>
       <c r="B282">
-        <v>2531</v>
+        <v>4912</v>
       </c>
       <c r="C282">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4896</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>284</v>
       </c>
       <c r="B283">
-        <v>4991</v>
+        <v>2531</v>
       </c>
       <c r="C283">
-        <v>4976</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2496</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>285</v>
       </c>
       <c r="B284">
-        <v>1560</v>
+        <v>4991</v>
       </c>
       <c r="C284">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4976</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>286</v>
       </c>
       <c r="B285">
-        <v>5851</v>
+        <v>1560</v>
       </c>
       <c r="C285">
-        <v>5840</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1552</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>287</v>
       </c>
       <c r="B286">
-        <v>1147</v>
+        <v>5851</v>
       </c>
       <c r="C286">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5840</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>288</v>
       </c>
       <c r="B287">
-        <v>2982</v>
+        <v>1147</v>
       </c>
       <c r="C287">
-        <v>2976</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1136</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>289</v>
       </c>
       <c r="B288">
-        <v>1014</v>
+        <v>2982</v>
       </c>
       <c r="C288">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2976</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>290</v>
       </c>
       <c r="B289">
-        <v>4498</v>
+        <v>1014</v>
       </c>
       <c r="C289">
-        <v>4480</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1008</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>291</v>
       </c>
       <c r="B290">
+        <v>4498</v>
+      </c>
+      <c r="C290">
+        <v>4480</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291">
         <v>1443</v>
       </c>
-      <c r="C290">
+      <c r="C291">
         <v>1440</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
